--- a/testData/TC007CreateRoomType.xlsx
+++ b/testData/TC007CreateRoomType.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
   <si>
     <t>userName</t>
   </si>
@@ -60,10 +60,13 @@
     <t>8796</t>
   </si>
   <si>
-    <t>13684</t>
-  </si>
-  <si>
     <t>Welcome500</t>
+  </si>
+  <si>
+    <t>14907</t>
+  </si>
+  <si>
+    <t>hotel hub</t>
   </si>
 </sst>
 </file>
@@ -416,10 +419,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -457,10 +460,10 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
@@ -478,12 +481,39 @@
         <v>9</v>
       </c>
       <c r="H2" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="1">
+        <v>18976</v>
+      </c>
+      <c r="E3" s="1">
+        <v>965436</v>
+      </c>
+      <c r="F3" s="1">
+        <v>56788</v>
+      </c>
+      <c r="G3" s="1">
+        <v>20</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>11</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" display="Reshma@1"/>
+    <hyperlink ref="B3" r:id="rId2" display="Reshma@1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
